--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st06.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st06.xlsx
@@ -35,7 +35,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">With Ms. Christine’s guidance, a Human Resources Operator locates Phantom and asks him some questions about his file. While Phantom’s answers aren’t exactly lies, they do raise more questions.
+    <t xml:space="preserve">With Ms. Christine's guidance, a Human Resources Operator locates Phantom and asks him some questions about his file. While Phantom's answers aren't exactly lies, they do raise more questions.
 </t>
   </si>
   <si>
